--- a/Solid Models/Vendor parts/BoM.xlsx
+++ b/Solid Models/Vendor parts/BoM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micheal Ramsby\Documents\GitHub\Bipedal_Robot\Solid Models\Vendor parts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Solid Models\Vendor parts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CA7EBA-68DB-4E46-98B4-0616F2555EB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56156A8E-6F4E-4CCC-BDE8-41E96999411B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F0FFD90D-C592-4DD1-BC21-3E21DB400C8E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F0FFD90D-C592-4DD1-BC21-3E21DB400C8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -261,7 +261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -273,6 +273,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -591,7 +592,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,7 +641,7 @@
       <c r="E2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -660,7 +661,7 @@
       <c r="E3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -680,7 +681,7 @@
       <c r="E4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -700,7 +701,7 @@
       <c r="E5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -720,7 +721,7 @@
       <c r="E6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -740,7 +741,7 @@
       <c r="E7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -760,7 +761,7 @@
       <c r="E8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -780,7 +781,7 @@
       <c r="E9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -794,8 +795,16 @@
     <hyperlink ref="E7" r:id="rId6" xr:uid="{774DBCB7-3DD1-4749-9052-54E6471D3A65}"/>
     <hyperlink ref="E8" r:id="rId7" xr:uid="{D28F8CEA-15B9-4C1C-B613-B7BE5FE05787}"/>
     <hyperlink ref="E9" r:id="rId8" xr:uid="{C717A750-D1B9-40A8-AA70-7BED68999A81}"/>
+    <hyperlink ref="F2" r:id="rId9" xr:uid="{46447208-2579-4A36-A29B-3846BFC2E61F}"/>
+    <hyperlink ref="F3" r:id="rId10" xr:uid="{6A16A2C9-F83C-4DEE-BB5B-0013932336A4}"/>
+    <hyperlink ref="F4" r:id="rId11" xr:uid="{FF9DAEA4-61D1-4963-B4BD-9EE5D664BC86}"/>
+    <hyperlink ref="F5" r:id="rId12" xr:uid="{789A149D-A6FD-43A5-848D-616C53E10B26}"/>
+    <hyperlink ref="F6" r:id="rId13" xr:uid="{BDD1CFDB-5503-494B-B4F3-2D4E0B0C88B0}"/>
+    <hyperlink ref="F7" r:id="rId14" xr:uid="{9213A6EF-3257-428A-AA04-F57C6DE5F794}"/>
+    <hyperlink ref="F8" r:id="rId15" xr:uid="{D0D2E6BB-BD32-4D20-A6C2-E6A1B5B9DD31}"/>
+    <hyperlink ref="F9" r:id="rId16" xr:uid="{25C99590-E91C-4FB9-AAD0-64AB22A360A3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId9"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId17"/>
 </worksheet>
 </file>